--- a/feat_eng/run_table.xlsx
+++ b/feat_eng/run_table.xlsx
@@ -5,17 +5,18 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="146" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="291" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="38">
   <si>
     <t>Custom Analyzer </t>
   </si>
@@ -53,12 +54,24 @@
     <t>IMDb Genre</t>
   </si>
   <si>
-    <t>Accuracy</t>
+    <t>Train Accuracy</t>
   </si>
   <si>
     <t>Run Time</t>
   </si>
   <si>
+    <t>Kaggle Accuracy</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>TfIDf</t>
+  </si>
+  <si>
+    <t>TfiDf</t>
+  </si>
+  <si>
     <t>Build In Analyzer</t>
   </si>
   <si>
@@ -75,6 +88,48 @@
   </si>
   <si>
     <t>Min Df</t>
+  </si>
+  <si>
+    <t>Genre</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t>char_wb</t>
+  </si>
+  <si>
+    <t>ascii</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>1,4</t>
+  </si>
+  <si>
+    <t>1,8</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Less overfit</t>
+  </si>
+  <si>
+    <t>Overfit</t>
+  </si>
+  <si>
+    <t>1,10</t>
+  </si>
+  <si>
+    <t>Best</t>
   </si>
 </sst>
 </file>
@@ -170,23 +225,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8367346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.219387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.43877551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.43877551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.55102040816327"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.33163265306122"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.3112244897959"/>
     <col collapsed="false" hidden="false" max="8" min="7" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.8877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.4183673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -234,47 +293,862 @@
       <c r="M2" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="N2" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="B3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>0.935</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>0.826</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>0.922</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>2.11</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>14</v>
+      <c r="B8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>4.13</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>1</v>
-      </c>
       <c r="B9" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>13</v>
+      <c r="C9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>0.962</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>4.27</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>0.972</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>4.211</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>4.08</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>0.909</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>0.866</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>264.73</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>0.819</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>264.73</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>269.33</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>0.859</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>0.944</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>4.17</v>
       </c>
     </row>
   </sheetData>
@@ -286,4 +1160,714 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M21"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N21" activeCellId="0" sqref="N21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4744897959184"/>
+    <col collapsed="false" hidden="false" max="9" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.0612244897959"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.8112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>0.856</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>0.807</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>0.838</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>0.807</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>0.993</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>15.04</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>0.991</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>0.973</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>14.61</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>0.967</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>15.85</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>0.963</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>15.28</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>5E-005</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>15.31</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>0.9966</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>0.971</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>19.06</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>16.81</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>0.69648</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/feat_eng/run_table.xlsx
+++ b/feat_eng/run_table.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="38">
-  <si>
-    <t>Custom Analyzer </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="40">
+  <si>
+    <t>Custom Analyzer</t>
   </si>
   <si>
     <t>Run #\Feature</t>
@@ -63,16 +63,22 @@
     <t>Kaggle Accuracy</t>
   </si>
   <si>
+    <t>Comment</t>
+  </si>
+  <si>
     <t>Count</t>
   </si>
   <si>
+    <t>Just Exact Matching</t>
+  </si>
+  <si>
     <t>TfIDf</t>
   </si>
   <si>
     <t>TfiDf</t>
   </si>
   <si>
-    <t>Build In Analyzer</t>
+    <t>Built In Analyzer</t>
   </si>
   <si>
     <t>Analyzer Type</t>
@@ -144,6 +150,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -225,10 +232,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -245,7 +252,8 @@
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.4183673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.9183673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -296,13 +304,16 @@
       <c r="N2" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="O2" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
@@ -336,6 +347,9 @@
       </c>
       <c r="M3" s="0" t="n">
         <v>0.45</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -343,7 +357,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
@@ -384,7 +398,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>1</v>
@@ -425,7 +439,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -466,7 +480,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -503,8 +517,11 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="B8" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -541,8 +558,11 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>7</v>
+      </c>
       <c r="B9" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -579,8 +599,11 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>8</v>
+      </c>
       <c r="B10" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -617,8 +640,11 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>9</v>
+      </c>
       <c r="B11" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -655,8 +681,11 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="B12" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -693,8 +722,11 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>11</v>
+      </c>
       <c r="B13" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1</v>
@@ -731,8 +763,11 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>12</v>
+      </c>
       <c r="B14" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1</v>
@@ -769,8 +804,11 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>13</v>
+      </c>
       <c r="B15" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
@@ -807,8 +845,11 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>14</v>
+      </c>
       <c r="B16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
@@ -845,8 +886,11 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>15</v>
+      </c>
       <c r="B17" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
@@ -883,8 +927,11 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>16</v>
+      </c>
       <c r="B18" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1</v>
@@ -924,8 +971,11 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>17</v>
+      </c>
       <c r="B19" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>1</v>
@@ -962,8 +1012,11 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>18</v>
+      </c>
       <c r="B20" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>1</v>
@@ -1000,8 +1053,11 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>19</v>
+      </c>
       <c r="B21" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1</v>
@@ -1038,8 +1094,11 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>20</v>
+      </c>
       <c r="B22" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>0</v>
@@ -1076,8 +1135,11 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>21</v>
+      </c>
       <c r="B23" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>0</v>
@@ -1114,8 +1176,11 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>22</v>
+      </c>
       <c r="B24" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>0</v>
@@ -1169,8 +1234,8 @@
   </sheetPr>
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N21" activeCellId="0" sqref="N21"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1185,7 +1250,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1196,25 +1261,25 @@
         <v>2</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>13</v>
@@ -1226,30 +1291,33 @@
         <v>14</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>0</v>
@@ -1265,26 +1333,29 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="B4" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>0</v>
@@ -1297,26 +1368,29 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="B5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>0</v>
@@ -1329,26 +1403,29 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="B6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>0</v>
@@ -1361,26 +1438,29 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>5</v>
+      </c>
       <c r="B7" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>0</v>
@@ -1393,26 +1473,29 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="B8" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>0</v>
@@ -1425,26 +1508,29 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>7</v>
+      </c>
       <c r="B9" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>0</v>
@@ -1457,26 +1543,29 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>8</v>
+      </c>
       <c r="B10" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>0</v>
@@ -1489,26 +1578,29 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>9</v>
+      </c>
       <c r="B11" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>0</v>
@@ -1519,28 +1611,34 @@
       <c r="K11" s="0" t="n">
         <v>0.997</v>
       </c>
+      <c r="L11" s="0" t="n">
+        <v>0.667</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="B12" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>0</v>
@@ -1553,26 +1651,29 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>11</v>
+      </c>
       <c r="B13" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>0</v>
@@ -1585,26 +1686,29 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>12</v>
+      </c>
       <c r="B14" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>0</v>
@@ -1617,23 +1721,26 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>13</v>
+      </c>
       <c r="B15" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.0001</v>
@@ -1648,27 +1755,30 @@
         <v>0.963</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>14</v>
+      </c>
       <c r="B16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>1E-005</v>
@@ -1683,27 +1793,30 @@
         <v>0.997</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>15</v>
+      </c>
       <c r="B17" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>5E-005</v>
@@ -1718,30 +1831,33 @@
         <v>0.9966</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>16</v>
+      </c>
       <c r="B18" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G18" s="0" t="n">
         <v>0.999</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I18" s="0" t="n">
         <v>0</v>
@@ -1753,24 +1869,27 @@
         <v>0.997</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>17</v>
+      </c>
       <c r="B19" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>0.999</v>
@@ -1788,30 +1907,33 @@
         <v>0.971</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>18</v>
+      </c>
       <c r="B20" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I20" s="0" t="n">
         <v>0</v>
@@ -1824,26 +1946,29 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>19</v>
+      </c>
       <c r="B21" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I21" s="0" t="n">
         <v>1</v>
@@ -1858,13 +1983,13 @@
         <v>0.69648</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
